--- a/biology/Botanique/Monsieur_de_Morand/Monsieur_de_Morand.xlsx
+++ b/biology/Botanique/Monsieur_de_Morand/Monsieur_de_Morand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Monsieur de Morand' est un cultivar de rosier obtenu en 1891 par Mme Schwartz[1]. Il est issu d'un semis de 'Général Jacqueminot' (Roussel, 1853)[2]. Cette obtention lyonnaise a été un grand succès de la Belle Époque[3] et retrouve aujourd'hui un certain regain.
+'Monsieur de Morand' est un cultivar de rosier obtenu en 1891 par Mme Schwartz. Il est issu d'un semis de 'Général Jacqueminot' (Roussel, 1853). Cette obtention lyonnaise a été un grand succès de la Belle Époque et retrouve aujourd'hui un certain regain.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Monsieur de Morand' est un hybride remontant aux grosses fleurs globuleuses de couleur rose bonbon aux nuances carmin, fleurissant abondamment en bouquets[4]. La floraison a lieu tout au long de la saison[2]. Ce rosier est très apprécié pour ses fleurs en forme de chou. Le buisson s'élève à 150 cm de hauteur[5].
-Sa zone de rusticité est de 6b à plus chaud ; il résiste donc bien aux hivers froids. Il est très résistant aux maladies[2].
-On peut admirer 'Monsieur de Morand' à l'Europa-Rosarium de Sangerhausen[3] en Allemagne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Monsieur de Morand' est un hybride remontant aux grosses fleurs globuleuses de couleur rose bonbon aux nuances carmin, fleurissant abondamment en bouquets. La floraison a lieu tout au long de la saison. Ce rosier est très apprécié pour ses fleurs en forme de chou. Le buisson s'élève à 150 cm de hauteur.
+Sa zone de rusticité est de 6b à plus chaud ; il résiste donc bien aux hivers froids. Il est très résistant aux maladies.
+On peut admirer 'Monsieur de Morand' à l'Europa-Rosarium de Sangerhausen en Allemagne.
 </t>
         </is>
       </c>
